--- a/testcase/test_case.xlsx
+++ b/testcase/test_case.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="机床租户开立" sheetId="3" r:id="rId1"/>
+    <sheet name="普通租户开立" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="删除" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
   <si>
     <t>method</t>
   </si>
@@ -122,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/blade-system/tenants</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>application/x-www-form-urlencoded</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "tenantCode": "interface13",  "tenantName": "interface_2",  "linkman": "1",  "contactNumber": "13222222222",  "classes": "2"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>check_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,19 +156,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/blade-system/tenants/page?tenantName=interface&amp;current=1&amp;size=30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询新建普通租户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>case_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/blade-auth/oauth/token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -209,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/blade-system/tenant-app?edition=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登入租户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,13 +205,141 @@
   <si>
     <t>登录成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/blade-system/tenants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/blade-system/tenants/page?tenantName=interface&amp;current=1&amp;size=30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/blade-system/tenant-app?edition=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_006</t>
+  </si>
+  <si>
+    <t>/api/blade-system/tenants/${id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除新建的租户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{code: 200, success: true, data: null, msg: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{appCode: "console"
+appDisplayName: "控制中心"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_001,case_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "tenantCode": "interface",  "tenantName": "interface_4",  "linkman": "机床厂商",  "contactNumber": "13222222222",  "classes": "4"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "tenantCode": "interface1",  "tenantName": "interface_2",  "linkman": "普通租户",  "contactNumber": "13222222222",  "classes": "2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_code</t>
+  </si>
+  <si>
+    <t>check_json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{ "msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"linkman": "普通租户"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appCode": "console",
+"appDisplayName": "控制中心"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenant_id": "000000",
+"user_name": "admin"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_contain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +369,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -280,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -291,6 +436,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -571,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -655,7 +805,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
@@ -664,136 +814,203 @@
         <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="57">
+    <row r="3" spans="1:13" ht="71.25">
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="71.25">
       <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="114">
       <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="42.75">
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="114">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.5">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15">
+      <c r="F14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -809,13 +1026,419 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="19.5">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="114">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="71.25">
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="71.25">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="114">
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="42.75">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="114">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.5">
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15">
+      <c r="F14" s="4"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+      <formula1>"no_check,check_code,check_contain,check_json,entirely_check,regular_check"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="58.5">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="71.25">
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2">
+      <formula1>"no_check,check_code,check_json,entirely_check,regular_check"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/testcase/test_case.xlsx
+++ b/testcase/test_case.xlsx
@@ -4,13 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="机床租户开立" sheetId="3" r:id="rId1"/>
-    <sheet name="普通租户开立" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="删除" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>method</t>
   </si>
@@ -31,9 +28,6 @@
   </si>
   <si>
     <t>mime_type</t>
-  </si>
-  <si>
-    <t>premise</t>
   </si>
   <si>
     <t>describe</t>
@@ -231,48 +225,6 @@
   </si>
   <si>
     <t>删除新建的租户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{code: 200, success: true, data: null, msg: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF212121"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{appCode: "console"
-appDisplayName: "控制中心"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_001,case_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "tenantCode": "interface",  "tenantName": "interface_4",  "linkman": "机床厂商",  "contactNumber": "13222222222",  "classes": "4"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -339,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,25 +336,9 @@
     <font>
       <sz val="9"/>
       <color rgb="FF212121"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -425,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -440,7 +376,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -723,313 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="19.5">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="114">
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="71.25">
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="71.25">
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="114">
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="42.75">
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="114">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="28.5">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15">
-      <c r="F14" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
-      <formula1>"no_check,check_code,check_json,entirely_check,regular_check"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1052,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="19.5">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1067,252 +697,252 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="114">
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="71.25">
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="71.25">
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="114">
       <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="42.75">
       <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="114">
       <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="28.5">
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15">
@@ -1328,118 +958,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="4" spans="1:1">
-      <c r="A4" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="58.5">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="71.25">
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2">
-      <formula1>"no_check,check_code,check_json,entirely_check,regular_check"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>